--- a/Presupuesto.xlsx
+++ b/Presupuesto.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Único</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">1. Visita Técnica Intecap, Laboratorio de Aguas </t>
   </si>
   <si>
-    <t>2. Visita Técnica USAC, Laboratorio de Aguas</t>
-  </si>
-  <si>
     <t>3. Visita Técnica TEC de Monterrey, Laboratorio de Aguas</t>
   </si>
   <si>
@@ -62,24 +59,15 @@
     <t xml:space="preserve"> Viáticos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Alimentación y Hospedaje</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Capacitación presencial</t>
   </si>
   <si>
     <t xml:space="preserve"> Material de trabajo</t>
   </si>
   <si>
-    <t xml:space="preserve">Visita Técnica USAC Laboratorio de Aguas </t>
-  </si>
-  <si>
     <t xml:space="preserve">Visita Técnica TEC Monterrey Laboratorio de Aguas </t>
   </si>
   <si>
-    <t>Diplomado en Norma ISO 17025:2005, Ciudad de México</t>
-  </si>
-  <si>
     <t>Sueldo Laboral Epesista</t>
   </si>
   <si>
@@ -152,16 +140,22 @@
     <t>Distribución de Rubros</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Cuenta</t>
+    <t>Visita Técnica USAC Laboratorio de Aguas: Laboratorio Alba Tabarini Molina y LAFYM</t>
+  </si>
+  <si>
+    <t>Guía de Implementación de Normas ISO, Agexport Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alimentación y Hospedaje ( 7 días ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alimentación y Hospedaje ( 3 días ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alimentación y Hospedaje ( 2 días ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costo de Matrícula </t>
   </si>
 </sst>
 </file>
@@ -282,18 +276,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Énfasis3" xfId="2" builtinId="39"/>
@@ -675,7 +669,7 @@
                 <c:formatCode>_([$Q-100A]* #,##0.00_);_([$Q-100A]* \(#,##0.00\);_([$Q-100A]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14780.16</c:v>
+                  <c:v>13660</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43800</c:v>
@@ -1621,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,117 +1628,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="C1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="8">
+      <c r="B3" s="11"/>
+      <c r="C3" s="6">
         <f>SUM(C4:C10)</f>
-        <v>14780.16</v>
-      </c>
-      <c r="D3" s="8">
+        <v>13660</v>
+      </c>
+      <c r="D3" s="6">
         <f>SUM(D4:D10)</f>
         <v>43800</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <f>SUM(E4:E10)</f>
         <v>1380</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <f>D20</f>
-        <v>900</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+        <v>1050</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="str">
+        <f>B21</f>
+        <v>2. Visita Técnica USAC Laboratorio de Aguas: Laboratorio Alba Tabarini Molina y LAFYM</v>
+      </c>
+      <c r="C5" s="8">
+        <f>D25</f>
+        <v>1380</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10">
-        <f>D25</f>
-        <v>900</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="8">
+        <f>D30</f>
+        <v>6800</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
-        <f>D30</f>
-        <v>6490.08</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="8">
+        <f>D35</f>
+        <v>4430</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10">
-        <f>D35</f>
-        <v>6490.08</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
         <f>D42</f>
         <v>33000</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="str">
+      <c r="B9" s="7" t="str">
         <f>B43</f>
         <v>6. Sueldo Laboral Asesor de EPS</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
         <f>D49</f>
         <v>10800</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="8" t="str">
         <f>B50</f>
         <v>7. Equipo y Utiles de Oficina</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
         <f>E71</f>
         <v>1380</v>
       </c>
@@ -1759,9 +1754,9 @@
         <f>CONCATENATE(I16,". ",J16)</f>
         <v xml:space="preserve">1. Visita Técnica Intecap, Laboratorio de Aguas </v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="I16">
         <v>1</v>
       </c>
@@ -1774,35 +1769,35 @@
         <f t="shared" ref="B17:B71" si="0">CONCATENATE(I17,". ",J17)</f>
         <v>1.1.  Viáticos</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>300</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="I17">
         <f>I16+0.1</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>1.2.  Alimentación y Hospedaje</v>
-      </c>
-      <c r="C18" s="11">
+        <v xml:space="preserve">1.2.  Alimentación y Hospedaje ( 2 días ) </v>
+      </c>
+      <c r="C18" s="9">
         <v>300</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="I18">
         <f t="shared" ref="I18:I20" si="1">I17+0.1</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1810,17 +1805,17 @@
         <f t="shared" si="0"/>
         <v>1.3.  Capacitación presencial</v>
       </c>
-      <c r="C19" s="11">
-        <v>150</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="C19" s="9">
+        <v>300</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="I19">
         <f t="shared" si="1"/>
         <v>1.3000000000000003</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1828,35 +1823,35 @@
         <f t="shared" si="0"/>
         <v>1.4.  Material de trabajo</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>150</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <f>SUM(C17:C20)</f>
-        <v>900</v>
-      </c>
-      <c r="E20" s="11"/>
+        <v>1050</v>
+      </c>
+      <c r="E20" s="9"/>
       <c r="I20">
         <f t="shared" si="1"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="63" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">2. Visita Técnica USAC Laboratorio de Aguas </v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+        <f>CONCATENATE(I21,". ",J21)</f>
+        <v>2. Visita Técnica USAC Laboratorio de Aguas: Laboratorio Alba Tabarini Molina y LAFYM</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1864,35 +1859,36 @@
         <f t="shared" si="0"/>
         <v>2.1.  Viáticos</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>300</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
       <c r="I22">
         <f>I21+0.1</f>
         <v>2.1</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2.2.  Alimentación y Hospedaje</v>
-      </c>
-      <c r="C23" s="11">
-        <v>300</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+        <v xml:space="preserve">2.2.  Alimentación y Hospedaje ( 7 días ) </v>
+      </c>
+      <c r="C23" s="9">
+        <f>30*3*7</f>
+        <v>630</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
       <c r="I23">
         <f>I22+0.1</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1900,17 +1896,17 @@
         <f t="shared" si="0"/>
         <v>2.3.  Capacitación presencial</v>
       </c>
-      <c r="C24" s="11">
-        <v>150</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="C24" s="9">
+        <v>300</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="I24">
         <f t="shared" ref="I24:I25" si="2">I23+0.1</f>
         <v>2.3000000000000003</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1918,20 +1914,20 @@
         <f t="shared" si="0"/>
         <v>2.4.  Material de trabajo</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <v>150</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <f>SUM(C22:C25)</f>
-        <v>900</v>
-      </c>
-      <c r="E25" s="11"/>
+        <v>1380</v>
+      </c>
+      <c r="E25" s="9"/>
       <c r="I25">
         <f t="shared" si="2"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1939,14 +1935,14 @@
         <f>CONCATENATE(I26,". ",J26)</f>
         <v xml:space="preserve">3. Visita Técnica TEC Monterrey Laboratorio de Aguas </v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -1954,54 +1950,53 @@
         <f t="shared" si="0"/>
         <v>3.1.  Viáticos</v>
       </c>
-      <c r="C27" s="11">
-        <f>344*7.82</f>
-        <v>2690.08</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="C27" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="I27">
         <f>I26+0.1</f>
         <v>3.1</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>3.2.  Alimentación y Hospedaje</v>
-      </c>
-      <c r="C28" s="11">
+        <v xml:space="preserve">3.2.  Alimentación y Hospedaje ( 7 días ) </v>
+      </c>
+      <c r="C28" s="9">
         <v>1500</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
       <c r="I28">
         <f t="shared" ref="I28:I30" si="3">I27+0.1</f>
         <v>3.2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>3.3.  Capacitación presencial</v>
-      </c>
-      <c r="C29" s="11">
+        <v xml:space="preserve">3.3. Costo de Matrícula </v>
+      </c>
+      <c r="C29" s="9">
         <v>1500</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="I29">
         <f t="shared" si="3"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -2009,36 +2004,36 @@
         <f t="shared" si="0"/>
         <v>3.4.  Material de trabajo</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="9">
         <v>800</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="9">
         <f>SUM(C27:C30)</f>
-        <v>6490.08</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>6800</v>
+      </c>
+      <c r="E30" s="9"/>
       <c r="I30">
         <f t="shared" si="3"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>4. Diplomado en Norma ISO 17025:2005, Ciudad de México</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+        <v>4. Guía de Implementación de Normas ISO, Agexport Guatemala</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
       <c r="H31" s="4"/>
       <c r="I31">
         <v>4</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -2046,36 +2041,35 @@
         <f t="shared" si="0"/>
         <v>4.1.  Viáticos</v>
       </c>
-      <c r="C32" s="11">
-        <f>344*7.82</f>
-        <v>2690.08</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="C32" s="9">
+        <v>750</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
       <c r="I32">
         <f>I31+0.1</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>4.2.  Alimentación y Hospedaje</v>
-      </c>
-      <c r="C33" s="11">
+        <v xml:space="preserve">4.2.  Alimentación y Hospedaje ( 3 días ) </v>
+      </c>
+      <c r="C33" s="9">
         <v>1500</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
       <c r="I33">
         <f t="shared" ref="I33:I35" si="4">I32+0.1</f>
         <v>4.1999999999999993</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -2083,17 +2077,17 @@
         <f t="shared" si="0"/>
         <v>4.3.  Capacitación presencial</v>
       </c>
-      <c r="C34" s="11">
-        <v>1500</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="C34" s="9">
+        <v>1380</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
       <c r="I34">
         <f t="shared" si="4"/>
         <v>4.2999999999999989</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -2101,20 +2095,20 @@
         <f t="shared" si="0"/>
         <v>4.4.  Material de trabajo</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="9">
         <v>800</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="9">
         <f>SUM(C32:C35)</f>
-        <v>6490.08</v>
-      </c>
-      <c r="E35" s="11"/>
+        <v>4430</v>
+      </c>
+      <c r="E35" s="9"/>
       <c r="I35">
         <f t="shared" si="4"/>
         <v>4.3999999999999986</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2122,14 +2116,14 @@
         <f t="shared" si="0"/>
         <v>5. Sueldo Laboral Epesista</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
       <c r="I36">
         <v>5</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -2137,17 +2131,17 @@
         <f t="shared" si="0"/>
         <v>5.1.  Mayo</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="9">
         <v>5500</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
       <c r="I37">
         <f>I36+0.1</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -2155,17 +2149,17 @@
         <f t="shared" si="0"/>
         <v>5.2.  Junio</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="9">
         <v>5500</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
       <c r="I38">
         <f t="shared" ref="I38:I42" si="5">I37+0.1</f>
         <v>5.1999999999999993</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -2173,17 +2167,17 @@
         <f t="shared" si="0"/>
         <v>5.3.  Julio</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="9">
         <v>5500</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
       <c r="I39">
         <f t="shared" si="5"/>
         <v>5.2999999999999989</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -2191,17 +2185,17 @@
         <f t="shared" si="0"/>
         <v>5.4.  Agosto</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="9">
         <v>5500</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
       <c r="I40">
         <f t="shared" si="5"/>
         <v>5.3999999999999986</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -2209,17 +2203,17 @@
         <f t="shared" si="0"/>
         <v>5.5.  Septiembre</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="9">
         <v>5500</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
       <c r="I41">
         <f t="shared" si="5"/>
         <v>5.4999999999999982</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -2227,20 +2221,20 @@
         <f t="shared" si="0"/>
         <v>5.6.  Octubre</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="9">
         <v>5500</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <f>SUM(C37:C42)</f>
         <v>33000</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="9"/>
       <c r="I42">
         <f t="shared" si="5"/>
         <v>5.5999999999999979</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -2248,14 +2242,14 @@
         <f t="shared" si="0"/>
         <v>6. Sueldo Laboral Asesor de EPS</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
       <c r="I43">
         <v>6</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -2263,17 +2257,17 @@
         <f t="shared" si="0"/>
         <v>6.1.  Mayo</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="9">
         <v>1800</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
       <c r="I44">
         <f>I43+0.1</f>
         <v>6.1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -2281,17 +2275,17 @@
         <f t="shared" si="0"/>
         <v>6.2.  Junio</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="9">
         <v>1800</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
       <c r="I45">
         <f t="shared" ref="I45:I51" si="6">I44+0.1</f>
         <v>6.1999999999999993</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -2299,17 +2293,17 @@
         <f t="shared" si="0"/>
         <v>6.3.  Julio</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <v>1800</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
       <c r="I46">
         <f t="shared" si="6"/>
         <v>6.2999999999999989</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -2317,17 +2311,17 @@
         <f t="shared" si="0"/>
         <v>6.4.  Agosto</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="9">
         <v>1800</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
       <c r="I47">
         <f t="shared" si="6"/>
         <v>6.3999999999999986</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -2335,17 +2329,17 @@
         <f t="shared" si="0"/>
         <v>6.5.  Septiembre</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="9">
         <v>1800</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
       <c r="I48">
         <f t="shared" si="6"/>
         <v>6.4999999999999982</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -2353,20 +2347,20 @@
         <f t="shared" si="0"/>
         <v>6.6.  Octubre</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="9">
         <v>1800</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="9">
         <f>SUM(C44:C49)</f>
         <v>10800</v>
       </c>
-      <c r="E49" s="11"/>
+      <c r="E49" s="9"/>
       <c r="I49">
         <f t="shared" si="6"/>
         <v>6.5999999999999979</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2374,14 +2368,14 @@
         <f t="shared" si="0"/>
         <v>7. Equipo y Utiles de Oficina</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
       <c r="I50">
         <v>7</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -2389,15 +2383,15 @@
         <f t="shared" si="0"/>
         <v>7.1. Depreciación Laptop Toshiba</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
       <c r="I51">
         <f t="shared" si="6"/>
         <v>7.1</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -2405,17 +2399,17 @@
         <f t="shared" si="0"/>
         <v>7.1.1. Depreciación Mayo</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="9">
         <v>140</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
       <c r="I52" s="5" t="str">
         <f>CONCATENATE(I$51,".",L52)</f>
         <v>7.1.1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -2426,17 +2420,17 @@
         <f t="shared" si="0"/>
         <v>7.1.2. Depreciación Junio</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="9">
         <v>140</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
       <c r="I53" s="5" t="str">
         <f t="shared" ref="I53:I57" si="7">CONCATENATE(I$51,".",L53)</f>
         <v>7.1.2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -2447,17 +2441,17 @@
         <f t="shared" si="0"/>
         <v>7.1.3. Depreciación Julio</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="9">
         <v>140</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
       <c r="I54" s="5" t="str">
         <f t="shared" si="7"/>
         <v>7.1.3</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L54">
         <v>3</v>
@@ -2468,17 +2462,17 @@
         <f t="shared" si="0"/>
         <v>7.1.4. Depreciación Agosto</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="9">
         <v>140</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
       <c r="I55" s="5" t="str">
         <f t="shared" si="7"/>
         <v>7.1.4</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L55">
         <v>4</v>
@@ -2489,17 +2483,17 @@
         <f t="shared" si="0"/>
         <v>7.1.5. Depreciación Septiembre</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="9">
         <v>140</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
       <c r="I56" s="5" t="str">
         <f t="shared" si="7"/>
         <v>7.1.5</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L56">
         <v>5</v>
@@ -2510,20 +2504,20 @@
         <f t="shared" si="0"/>
         <v>7.1.6. Depreciación Octubre</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="9">
         <v>140</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="9">
         <f>SUM(C52:C57)</f>
         <v>840</v>
       </c>
-      <c r="E57" s="11"/>
+      <c r="E57" s="9"/>
       <c r="I57" s="5" t="str">
         <f t="shared" si="7"/>
         <v>7.1.6</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L57">
         <v>6</v>
@@ -2534,15 +2528,15 @@
         <f t="shared" si="0"/>
         <v>7.2. Depreciación Laptop Toshiba</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
       <c r="I58">
         <f>I51+0.1</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -2550,17 +2544,17 @@
         <f t="shared" si="0"/>
         <v>7.2.1. Depreciación Mayo</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="9">
         <v>15</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
       <c r="I59" s="5" t="str">
         <f>CONCATENATE(I$58,".",L59)</f>
         <v>7.2.1</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -2571,17 +2565,17 @@
         <f t="shared" si="0"/>
         <v>7.2.2. Depreciación Junio</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="9">
         <v>15</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
       <c r="I60" s="5" t="str">
         <f t="shared" ref="I60:I64" si="8">CONCATENATE(I$58,".",L60)</f>
         <v>7.2.2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -2592,17 +2586,17 @@
         <f t="shared" si="0"/>
         <v>7.2.3. Depreciación Julio</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="9">
         <v>15</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
       <c r="I61" s="5" t="str">
         <f t="shared" si="8"/>
         <v>7.2.3</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L61">
         <v>3</v>
@@ -2613,17 +2607,17 @@
         <f t="shared" si="0"/>
         <v>7.2.4. Depreciación Agosto</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="9">
         <v>15</v>
       </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
       <c r="I62" s="5" t="str">
         <f t="shared" si="8"/>
         <v>7.2.4</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L62">
         <v>4</v>
@@ -2634,17 +2628,17 @@
         <f t="shared" si="0"/>
         <v>7.2.5. Depreciación Septiembre</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="9">
         <v>15</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
       <c r="I63" s="5" t="str">
         <f t="shared" si="8"/>
         <v>7.2.5</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L63">
         <v>5</v>
@@ -2655,20 +2649,20 @@
         <f t="shared" si="0"/>
         <v>7.2.6. Depreciación Octubre</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="9">
         <v>15</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="9">
         <f>SUM(C59:C64)</f>
         <v>90</v>
       </c>
-      <c r="E64" s="11"/>
+      <c r="E64" s="9"/>
       <c r="I64" s="5" t="str">
         <f t="shared" si="8"/>
         <v>7.2.6</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L64">
         <v>6</v>
@@ -2679,15 +2673,15 @@
         <f t="shared" si="0"/>
         <v>7.3. Papelería, Impresiones, Fotocopias</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
       <c r="I65">
         <f>I58+0.1</f>
         <v>7.2999999999999989</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -2695,17 +2689,17 @@
         <f t="shared" si="0"/>
         <v>7.3.1. Mayo</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="9">
         <v>75</v>
       </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
       <c r="I66" s="5" t="str">
         <f>CONCATENATE(I$65,".",L66)</f>
         <v>7.3.1</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -2716,17 +2710,17 @@
         <f t="shared" si="0"/>
         <v>7.3.2. Junio</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="9">
         <v>75</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
       <c r="I67" s="5" t="str">
         <f>CONCATENATE(I$65,".",L67)</f>
         <v>7.3.2</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L67">
         <v>2</v>
@@ -2737,17 +2731,17 @@
         <f t="shared" si="0"/>
         <v>7.3.3. Julio</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="9">
         <v>75</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
       <c r="I68" s="5" t="str">
         <f t="shared" ref="I68:I71" si="9">CONCATENATE(I$65,".",L68)</f>
         <v>7.3.3</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L68">
         <v>3</v>
@@ -2758,17 +2752,17 @@
         <f t="shared" si="0"/>
         <v>7.3.4. Agosto</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="9">
         <v>75</v>
       </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
       <c r="I69" s="5" t="str">
         <f t="shared" si="9"/>
         <v>7.3.4</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L69">
         <v>4</v>
@@ -2779,17 +2773,17 @@
         <f t="shared" si="0"/>
         <v>7.3.5. Septiembre</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="9">
         <v>75</v>
       </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
       <c r="I70" s="5" t="str">
         <f t="shared" si="9"/>
         <v>7.3.5</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L70">
         <v>5</v>
@@ -2800,14 +2794,14 @@
         <f t="shared" si="0"/>
         <v>7.3.6. Octubre</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="9">
         <v>75</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="9">
         <f>SUM(C66:C71)</f>
         <v>450</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="9">
         <f>SUM(D57:D71)</f>
         <v>1380</v>
       </c>
@@ -2816,7 +2810,7 @@
         <v>7.3.6</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L71">
         <v>6</v>
